--- a/Result_files/V3_Bids_2021-02-22_2021-02-28.xlsx
+++ b/Result_files/V3_Bids_2021-02-22_2021-02-28.xlsx
@@ -560,7 +560,7 @@
         <v>36.481</v>
       </c>
       <c r="J2" t="n">
-        <v>1503.867432929526</v>
+        <v>1502.872044162974</v>
       </c>
       <c r="K2" t="n">
         <v>33.869999</v>
@@ -616,7 +616,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>3197.876801990885</v>
+        <v>3196.904024641869</v>
       </c>
       <c r="K3" t="n">
         <v>33.389999</v>
@@ -672,7 +672,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>3164.935650443511</v>
+        <v>3163.972672230399</v>
       </c>
       <c r="K4" t="n">
         <v>32.889999</v>
@@ -728,7 +728,7 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>3045.772841785232</v>
+        <v>3044.876335508467</v>
       </c>
       <c r="K5" t="n">
         <v>31.99</v>
@@ -784,7 +784,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>3158.99432905776</v>
+        <v>3158.057580205557</v>
       </c>
       <c r="K6" t="n">
         <v>35.200001</v>
@@ -831,16 +831,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>41.65500000000001</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>49.8</v>
       </c>
       <c r="I7" t="n">
-        <v>38.85400000000001</v>
+        <v>38.85399999999998</v>
       </c>
       <c r="J7" t="n">
-        <v>-1488.497778553662</v>
+        <v>-1510.782975607732</v>
       </c>
       <c r="K7" t="n">
         <v>39.369999</v>
@@ -887,7 +887,7 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>42.30500000000004</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>49.8</v>
@@ -896,7 +896,7 @@
         <v>38.85399999999998</v>
       </c>
       <c r="J8" t="n">
-        <v>-1689.510586592269</v>
+        <v>-1845.207906862526</v>
       </c>
       <c r="K8" t="n">
         <v>48.32</v>
@@ -940,19 +940,19 @@
         <v>6.72</v>
       </c>
       <c r="F9" t="n">
-        <v>21.6</v>
+        <v>11</v>
       </c>
       <c r="G9" t="n">
-        <v>36.20000000000002</v>
+        <v>36.19999999999999</v>
       </c>
       <c r="H9" t="n">
-        <v>28.2</v>
+        <v>38.8</v>
       </c>
       <c r="I9" t="n">
         <v>38.42600000000001</v>
       </c>
       <c r="J9" t="n">
-        <v>-1980.3768696</v>
+        <v>-1962.053075473819</v>
       </c>
       <c r="K9" t="n">
         <v>57.150002</v>
@@ -996,19 +996,19 @@
         <v>8.970000000000001</v>
       </c>
       <c r="F10" t="n">
-        <v>49.8</v>
+        <v>24.5</v>
       </c>
       <c r="G10" t="n">
         <v>36.19999999999999</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>25.3</v>
       </c>
       <c r="I10" t="n">
-        <v>39.37</v>
+        <v>38.42599999999999</v>
       </c>
       <c r="J10" t="n">
-        <v>-2176.540984321941</v>
+        <v>-1986.006838235521</v>
       </c>
       <c r="K10" t="n">
         <v>59.189999</v>
@@ -1046,16 +1046,16 @@
         <v>20.67</v>
       </c>
       <c r="D11" t="n">
-        <v>49.8</v>
+        <v>44.7</v>
       </c>
       <c r="E11" t="n">
         <v>5.91</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>5.100000000000001</v>
       </c>
       <c r="G11" t="n">
-        <v>36.2</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -1064,7 +1064,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>-2153.928498608135</v>
+        <v>-326.9544032321884</v>
       </c>
       <c r="K11" t="n">
         <v>57.700001</v>
@@ -1102,10 +1102,10 @@
         <v>20.67</v>
       </c>
       <c r="D12" t="n">
-        <v>49.8</v>
+        <v>31.1</v>
       </c>
       <c r="E12" t="n">
-        <v>5.91</v>
+        <v>5.909999999999854</v>
       </c>
       <c r="F12" t="n">
         <v>0</v>
@@ -1120,7 +1120,7 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>-3027.675211261947</v>
+        <v>-256.8439840586007</v>
       </c>
       <c r="K12" t="n">
         <v>54.939999</v>
@@ -1158,10 +1158,10 @@
         <v>20.67</v>
       </c>
       <c r="D13" t="n">
-        <v>49.8</v>
+        <v>39.5</v>
       </c>
       <c r="E13" t="n">
-        <v>5.91</v>
+        <v>5.909999999999918</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -1176,7 +1176,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>-3125.644623057915</v>
+        <v>-317.3249152806952</v>
       </c>
       <c r="K13" t="n">
         <v>56.43</v>
@@ -1232,7 +1232,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>-2383.193140456884</v>
+        <v>-1056.690368053932</v>
       </c>
       <c r="K14" t="n">
         <v>56.9</v>
@@ -1276,19 +1276,19 @@
         <v>6.890000000000001</v>
       </c>
       <c r="F15" t="n">
-        <v>49.8</v>
+        <v>12.7</v>
       </c>
       <c r="G15" t="n">
-        <v>36.78700000000001</v>
+        <v>36.787</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>37.1</v>
       </c>
       <c r="I15" t="n">
-        <v>34.952</v>
+        <v>34.09499999999997</v>
       </c>
       <c r="J15" t="n">
-        <v>-2193.564891482515</v>
+        <v>-1647.20790861</v>
       </c>
       <c r="K15" t="n">
         <v>55.689999</v>
@@ -1332,19 +1332,19 @@
         <v>6.24</v>
       </c>
       <c r="F16" t="n">
-        <v>25.8</v>
+        <v>29.4</v>
       </c>
       <c r="G16" t="n">
-        <v>36.787</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>24</v>
+        <v>20.4</v>
       </c>
       <c r="I16" t="n">
         <v>34.09499999999997</v>
       </c>
       <c r="J16" t="n">
-        <v>-1569.230338881167</v>
+        <v>-1547.73456402</v>
       </c>
       <c r="K16" t="n">
         <v>56.560001</v>
@@ -1388,19 +1388,19 @@
         <v>6.24</v>
       </c>
       <c r="F17" t="n">
-        <v>10.6</v>
+        <v>15.1</v>
       </c>
       <c r="G17" t="n">
-        <v>36.787</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>39.2</v>
+        <v>34.7</v>
       </c>
       <c r="I17" t="n">
         <v>34.14299999999997</v>
       </c>
       <c r="J17" t="n">
-        <v>-1662.124543813499</v>
+        <v>-1634.577938129999</v>
       </c>
       <c r="K17" t="n">
         <v>58.189999</v>
@@ -1447,7 +1447,7 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>36.977</v>
+        <v>35.44200000000001</v>
       </c>
       <c r="H18" t="n">
         <v>49.8</v>
@@ -1456,7 +1456,7 @@
         <v>33.952</v>
       </c>
       <c r="J18" t="n">
-        <v>-1198.025435363562</v>
+        <v>-1696.611849588851</v>
       </c>
       <c r="K18" t="n">
         <v>59.419998</v>
@@ -1503,7 +1503,7 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>37.279</v>
+        <v>35.44200000000001</v>
       </c>
       <c r="H19" t="n">
         <v>49.8</v>
@@ -1512,7 +1512,7 @@
         <v>33.952</v>
       </c>
       <c r="J19" t="n">
-        <v>-1079.421638519593</v>
+        <v>-1079.421638519595</v>
       </c>
       <c r="K19" t="n">
         <v>71.5</v>
@@ -1615,7 +1615,7 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>37.46899999999999</v>
+        <v>35.68000000000001</v>
       </c>
       <c r="H21" t="n">
         <v>49.8</v>
@@ -1624,7 +1624,7 @@
         <v>34.238</v>
       </c>
       <c r="J21" t="n">
-        <v>-1078.672967958033</v>
+        <v>-1078.672967958032</v>
       </c>
       <c r="K21" t="n">
         <v>67.510002</v>
@@ -1727,7 +1727,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>37.695</v>
+        <v>35.82099999999997</v>
       </c>
       <c r="H23" t="n">
         <v>49.8</v>
@@ -1783,7 +1783,7 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>38.647</v>
+        <v>38.346</v>
       </c>
       <c r="H24" t="n">
         <v>49.8</v>
@@ -1839,16 +1839,16 @@
         <v>49.8</v>
       </c>
       <c r="G25" t="n">
-        <v>36.53499999999991</v>
+        <v>36.53499999999999</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>35.238</v>
+        <v>35.098</v>
       </c>
       <c r="J25" t="n">
-        <v>1808.95244037489</v>
+        <v>1805.040201779874</v>
       </c>
       <c r="K25" t="n">
         <v>46.220001</v>
@@ -1904,7 +1904,7 @@
         <v>36.478</v>
       </c>
       <c r="J26" t="n">
-        <v>1668.265516264453</v>
+        <v>1667.2221434494</v>
       </c>
       <c r="K26" t="n">
         <v>46.290001</v>
@@ -1960,7 +1960,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>3357.543672917294</v>
+        <v>3356.523585525907</v>
       </c>
       <c r="K27" t="n">
         <v>44.279999</v>
@@ -2016,7 +2016,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>3296.014706610967</v>
+        <v>3295.013391551758</v>
       </c>
       <c r="K28" t="n">
         <v>43.52</v>
@@ -2072,7 +2072,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>3177.24830931411</v>
+        <v>3176.28232416942</v>
       </c>
       <c r="K29" t="n">
         <v>42.220001</v>
@@ -2128,7 +2128,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>3226.197937052735</v>
+        <v>3225.241646615618</v>
       </c>
       <c r="K30" t="n">
         <v>42.349998</v>
@@ -2181,10 +2181,10 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>39.509</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>1771.069991393403</v>
+        <v>1670.842737994019</v>
       </c>
       <c r="K31" t="n">
         <v>44.970001</v>
@@ -2240,7 +2240,7 @@
         <v>39.50899999999999</v>
       </c>
       <c r="J32" t="n">
-        <v>1970.566823939347</v>
+        <v>673.2351662414491</v>
       </c>
       <c r="K32" t="n">
         <v>50.439999</v>
@@ -2284,19 +2284,19 @@
         <v>6.57</v>
       </c>
       <c r="F33" t="n">
-        <v>3.3</v>
+        <v>49.8</v>
       </c>
       <c r="G33" t="n">
         <v>36.19999999999999</v>
       </c>
       <c r="H33" t="n">
-        <v>46.5</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>38.75</v>
+        <v>38.76</v>
       </c>
       <c r="J33" t="n">
-        <v>-1954.339715459999</v>
+        <v>-2728.232903129759</v>
       </c>
       <c r="K33" t="n">
         <v>63.43</v>
@@ -2340,19 +2340,19 @@
         <v>8.470000000000001</v>
       </c>
       <c r="F34" t="n">
-        <v>7.2</v>
+        <v>49.8</v>
       </c>
       <c r="G34" t="n">
         <v>36.19999999999999</v>
       </c>
       <c r="H34" t="n">
-        <v>42.6</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>38.75</v>
+        <v>38.76</v>
       </c>
       <c r="J34" t="n">
-        <v>-1961.345227382696</v>
+        <v>-5126.555605134665</v>
       </c>
       <c r="K34" t="n">
         <v>67.639999</v>
@@ -2390,7 +2390,7 @@
         <v>18.16</v>
       </c>
       <c r="D35" t="n">
-        <v>13.7</v>
+        <v>49.8</v>
       </c>
       <c r="E35" t="n">
         <v>6.319999999999709</v>
@@ -2402,13 +2402,13 @@
         <v>36.2</v>
       </c>
       <c r="H35" t="n">
-        <v>36.1</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>38.76</v>
       </c>
       <c r="J35" t="n">
-        <v>-417.6047360999999</v>
+        <v>-5248.506530106007</v>
       </c>
       <c r="K35" t="n">
         <v>68.849998</v>
@@ -2446,7 +2446,7 @@
         <v>18.16</v>
       </c>
       <c r="D36" t="n">
-        <v>29.20000000000024</v>
+        <v>49.8</v>
       </c>
       <c r="E36" t="n">
         <v>6.32</v>
@@ -2464,7 +2464,7 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>-249.7451119509751</v>
+        <v>-5897.37899354884</v>
       </c>
       <c r="K36" t="n">
         <v>63.549999</v>
@@ -2502,10 +2502,10 @@
         <v>18.16</v>
       </c>
       <c r="D37" t="n">
-        <v>32.1</v>
+        <v>49.8</v>
       </c>
       <c r="E37" t="n">
-        <v>6.319999999999709</v>
+        <v>6.32</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
@@ -2520,7 +2520,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>-271.7753601327096</v>
+        <v>-5970.222295432594</v>
       </c>
       <c r="K37" t="n">
         <v>63.849998</v>
@@ -2558,7 +2558,7 @@
         <v>19</v>
       </c>
       <c r="D38" t="n">
-        <v>17.2</v>
+        <v>49.8</v>
       </c>
       <c r="E38" t="n">
         <v>6.25</v>
@@ -2576,7 +2576,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>-137.8700399239912</v>
+        <v>-5063.759202709875</v>
       </c>
       <c r="K38" t="n">
         <v>59.43</v>
@@ -2620,19 +2620,19 @@
         <v>8.02</v>
       </c>
       <c r="F39" t="n">
-        <v>20.9</v>
+        <v>49.8</v>
       </c>
       <c r="G39" t="n">
-        <v>36.75899999999998</v>
+        <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>28.9</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>34.095</v>
       </c>
       <c r="J39" t="n">
-        <v>-1412.43080507768</v>
+        <v>-4082.137562133091</v>
       </c>
       <c r="K39" t="n">
         <v>55.66</v>
@@ -2688,7 +2688,7 @@
         <v>35</v>
       </c>
       <c r="J40" t="n">
-        <v>1649.168056053891</v>
+        <v>-2546.487735946935</v>
       </c>
       <c r="K40" t="n">
         <v>48.380001</v>
@@ -2735,7 +2735,7 @@
         <v>49.8</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>36.75899999999998</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -2744,7 +2744,7 @@
         <v>35</v>
       </c>
       <c r="J41" t="n">
-        <v>2088.240141860427</v>
+        <v>-809.7592229930335</v>
       </c>
       <c r="K41" t="n">
         <v>46.23</v>
@@ -2788,19 +2788,19 @@
         <v>6.72</v>
       </c>
       <c r="F42" t="n">
-        <v>0</v>
+        <v>4.9</v>
       </c>
       <c r="G42" t="n">
-        <v>36.94899999999998</v>
+        <v>35.442</v>
       </c>
       <c r="H42" t="n">
-        <v>49.8</v>
+        <v>44.90000000000001</v>
       </c>
       <c r="I42" t="n">
         <v>33.952</v>
       </c>
       <c r="J42" t="n">
-        <v>-1200.044251491882</v>
+        <v>-1749.5538298</v>
       </c>
       <c r="K42" t="n">
         <v>47.49999</v>
@@ -2847,7 +2847,7 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>36.94899999999998</v>
+        <v>35.44200000000001</v>
       </c>
       <c r="H43" t="n">
         <v>49.8</v>
@@ -2903,7 +2903,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>37.279</v>
+        <v>36.94899999999998</v>
       </c>
       <c r="H44" t="n">
         <v>49.8</v>
@@ -2912,7 +2912,7 @@
         <v>33.952</v>
       </c>
       <c r="J44" t="n">
-        <v>-1088.534413918444</v>
+        <v>-1088.534413918445</v>
       </c>
       <c r="K44" t="n">
         <v>60.759998</v>
@@ -2959,7 +2959,7 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>37.14</v>
+        <v>37.14000000000001</v>
       </c>
       <c r="H45" t="n">
         <v>49.8</v>
@@ -2968,7 +2968,7 @@
         <v>34.238</v>
       </c>
       <c r="J45" t="n">
-        <v>-1129.330977633153</v>
+        <v>-1129.330977633154</v>
       </c>
       <c r="K45" t="n">
         <v>53.560001</v>
@@ -3015,7 +3015,7 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>37.14</v>
+        <v>35.82099999999997</v>
       </c>
       <c r="H46" t="n">
         <v>49.8</v>
@@ -3071,13 +3071,13 @@
         <v>0</v>
       </c>
       <c r="G47" t="n">
-        <v>37.393</v>
+        <v>37.365</v>
       </c>
       <c r="H47" t="n">
         <v>49.8</v>
       </c>
       <c r="I47" t="n">
-        <v>34.66699999999999</v>
+        <v>34.66699999999997</v>
       </c>
       <c r="J47" t="n">
         <v>-1226.992544796112</v>
@@ -3124,19 +3124,19 @@
         <v>2.289999999999918</v>
       </c>
       <c r="F48" t="n">
-        <v>49.8</v>
+        <v>0</v>
       </c>
       <c r="G48" t="n">
-        <v>36.53499999999991</v>
+        <v>38.317</v>
       </c>
       <c r="H48" t="n">
-        <v>0</v>
+        <v>49.8</v>
       </c>
       <c r="I48" t="n">
-        <v>37.306</v>
+        <v>35.09100000000001</v>
       </c>
       <c r="J48" t="n">
-        <v>1968.474589513173</v>
+        <v>-1248.016066241188</v>
       </c>
       <c r="K48" t="n">
         <v>47.380001</v>
@@ -3192,7 +3192,7 @@
         <v>35.238</v>
       </c>
       <c r="J49" t="n">
-        <v>1740.452564516271</v>
+        <v>1739.389631377971</v>
       </c>
       <c r="K49" t="n">
         <v>43.49999</v>
@@ -3227,7 +3227,7 @@
         <v>1</v>
       </c>
       <c r="C50" t="n">
-        <v>21.53</v>
+        <v>21.52999999999997</v>
       </c>
       <c r="D50" t="n">
         <v>0</v>
@@ -3236,19 +3236,19 @@
         <v>1.13</v>
       </c>
       <c r="F50" t="n">
-        <v>47.8</v>
+        <v>0</v>
       </c>
       <c r="G50" t="n">
         <v>34.34499999999997</v>
       </c>
       <c r="H50" t="n">
-        <v>0</v>
+        <v>47.8</v>
       </c>
       <c r="I50" t="n">
-        <v>36.463</v>
+        <v>35.85400000000001</v>
       </c>
       <c r="J50" t="n">
-        <v>1865.655813329108</v>
+        <v>-1189.700461489602</v>
       </c>
       <c r="K50" t="n">
         <v>45.57</v>
@@ -3283,13 +3283,13 @@
         <v>1</v>
       </c>
       <c r="C51" t="n">
-        <v>21.53</v>
+        <v>21.52999999999997</v>
       </c>
       <c r="D51" t="n">
         <v>47.8</v>
       </c>
       <c r="E51" t="n">
-        <v>0.47</v>
+        <v>0.4700000000000637</v>
       </c>
       <c r="F51" t="n">
         <v>0</v>
@@ -3304,7 +3304,7 @@
         <v>0</v>
       </c>
       <c r="J51" t="n">
-        <v>3473.628965970173</v>
+        <v>3472.572834650781</v>
       </c>
       <c r="K51" t="n">
         <v>44.9998</v>
@@ -3339,13 +3339,13 @@
         <v>1</v>
       </c>
       <c r="C52" t="n">
-        <v>21.53</v>
+        <v>21.52999999999997</v>
       </c>
       <c r="D52" t="n">
         <v>47.8</v>
       </c>
       <c r="E52" t="n">
-        <v>0.47</v>
+        <v>0.4700000000000637</v>
       </c>
       <c r="F52" t="n">
         <v>0</v>
@@ -3360,7 +3360,7 @@
         <v>0</v>
       </c>
       <c r="J52" t="n">
-        <v>3383.382156922861</v>
+        <v>3382.352794542703</v>
       </c>
       <c r="K52" t="n">
         <v>42.240002</v>
@@ -3395,7 +3395,7 @@
         <v>1</v>
       </c>
       <c r="C53" t="n">
-        <v>21.53</v>
+        <v>21.52999999999997</v>
       </c>
       <c r="D53" t="n">
         <v>47.8</v>
@@ -3416,7 +3416,7 @@
         <v>0</v>
       </c>
       <c r="J53" t="n">
-        <v>3307.717152808674</v>
+        <v>3306.710049692311</v>
       </c>
       <c r="K53" t="n">
         <v>41.200001</v>
@@ -3472,7 +3472,7 @@
         <v>0</v>
       </c>
       <c r="J54" t="n">
-        <v>3383.666692355422</v>
+        <v>3382.660134169447</v>
       </c>
       <c r="K54" t="n">
         <v>40.52</v>
@@ -3525,10 +3525,10 @@
         <v>0</v>
       </c>
       <c r="I55" t="n">
-        <v>39.607</v>
+        <v>0</v>
       </c>
       <c r="J55" t="n">
-        <v>1665.21326070684</v>
+        <v>1475.625217960867</v>
       </c>
       <c r="K55" t="n">
         <v>43.360001</v>
@@ -3584,7 +3584,7 @@
         <v>38.85400000000001</v>
       </c>
       <c r="J56" t="n">
-        <v>1717.12187455253</v>
+        <v>839.9951142634839</v>
       </c>
       <c r="K56" t="n">
         <v>50.43</v>
@@ -3628,19 +3628,19 @@
         <v>6.32</v>
       </c>
       <c r="F57" t="n">
-        <v>9.800000000000001</v>
+        <v>26.4</v>
       </c>
       <c r="G57" t="n">
         <v>35.79199999999997</v>
       </c>
       <c r="H57" t="n">
-        <v>40</v>
+        <v>23.4</v>
       </c>
       <c r="I57" t="n">
-        <v>36.04099999999998</v>
+        <v>36.041</v>
       </c>
       <c r="J57" t="n">
-        <v>-1922.4181005</v>
+        <v>-1933.655005651703</v>
       </c>
       <c r="K57" t="n">
         <v>58.650002</v>
@@ -3684,19 +3684,19 @@
         <v>6.32</v>
       </c>
       <c r="F58" t="n">
-        <v>24.60000000000001</v>
+        <v>49.8</v>
       </c>
       <c r="G58" t="n">
         <v>35.79199999999997</v>
       </c>
       <c r="H58" t="n">
-        <v>25.2</v>
+        <v>0</v>
       </c>
       <c r="I58" t="n">
         <v>36.041</v>
       </c>
       <c r="J58" t="n">
-        <v>-1932.912249180001</v>
+        <v>-2526.739058741893</v>
       </c>
       <c r="K58" t="n">
         <v>62.2</v>
@@ -3734,7 +3734,7 @@
         <v>24.05</v>
       </c>
       <c r="D59" t="n">
-        <v>42.40000000000001</v>
+        <v>49.8</v>
       </c>
       <c r="E59" t="n">
         <v>5.69</v>
@@ -3746,13 +3746,13 @@
         <v>0</v>
       </c>
       <c r="H59" t="n">
-        <v>7.4</v>
+        <v>0</v>
       </c>
       <c r="I59" t="n">
         <v>36.041</v>
       </c>
       <c r="J59" t="n">
-        <v>-366.8115156200002</v>
+        <v>-3955.857046820659</v>
       </c>
       <c r="K59" t="n">
         <v>61.29999</v>
@@ -3790,10 +3790,10 @@
         <v>24.05</v>
       </c>
       <c r="D60" t="n">
-        <v>44.1</v>
+        <v>49.8</v>
       </c>
       <c r="E60" t="n">
-        <v>4.66999999999962</v>
+        <v>4.669999999999618</v>
       </c>
       <c r="F60" t="n">
         <v>0</v>
@@ -3808,7 +3808,7 @@
         <v>0</v>
       </c>
       <c r="J60" t="n">
-        <v>-318.2798429999999</v>
+        <v>-5907.501009765137</v>
       </c>
       <c r="K60" t="n">
         <v>59.540001</v>
@@ -3864,7 +3864,7 @@
         <v>0</v>
       </c>
       <c r="J61" t="n">
-        <v>-1510.827816332174</v>
+        <v>-6603.753401521051</v>
       </c>
       <c r="K61" t="n">
         <v>58.540001</v>
@@ -3905,7 +3905,7 @@
         <v>49.8</v>
       </c>
       <c r="E62" t="n">
-        <v>5.079999999999927</v>
+        <v>5.08</v>
       </c>
       <c r="F62" t="n">
         <v>0</v>
@@ -3920,7 +3920,7 @@
         <v>0</v>
       </c>
       <c r="J62" t="n">
-        <v>-1532.156287926967</v>
+        <v>-4806.985976561927</v>
       </c>
       <c r="K62" t="n">
         <v>57.900002</v>
@@ -3973,10 +3973,10 @@
         <v>0</v>
       </c>
       <c r="I63" t="n">
-        <v>34.095</v>
+        <v>35</v>
       </c>
       <c r="J63" t="n">
-        <v>-2494.983882096125</v>
+        <v>-4605.325963441775</v>
       </c>
       <c r="K63" t="n">
         <v>54.509998</v>
@@ -4032,7 +4032,7 @@
         <v>35</v>
       </c>
       <c r="J64" t="n">
-        <v>635.5428508773042</v>
+        <v>-3149.812276089179</v>
       </c>
       <c r="K64" t="n">
         <v>50</v>
@@ -4076,19 +4076,19 @@
         <v>6.32</v>
       </c>
       <c r="F65" t="n">
-        <v>49.8</v>
+        <v>41.2</v>
       </c>
       <c r="G65" t="n">
-        <v>32.74899999999997</v>
+        <v>32.74899999999998</v>
       </c>
       <c r="H65" t="n">
-        <v>0</v>
+        <v>8.6</v>
       </c>
       <c r="I65" t="n">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="J65" t="n">
-        <v>1426.717161802908</v>
+        <v>-1676.348375168706</v>
       </c>
       <c r="K65" t="n">
         <v>48</v>
@@ -4132,19 +4132,19 @@
         <v>6.19</v>
       </c>
       <c r="F66" t="n">
-        <v>0</v>
+        <v>4.400000000000003</v>
       </c>
       <c r="G66" t="n">
-        <v>36.94600000000001</v>
+        <v>32.56700000000001</v>
       </c>
       <c r="H66" t="n">
-        <v>49.8</v>
+        <v>45.40000000000001</v>
       </c>
       <c r="I66" t="n">
         <v>33.952</v>
       </c>
       <c r="J66" t="n">
-        <v>-1217.235705866922</v>
+        <v>-1727.82054788</v>
       </c>
       <c r="K66" t="n">
         <v>49.689999</v>
@@ -4312,7 +4312,7 @@
         <v>34.238</v>
       </c>
       <c r="J69" t="n">
-        <v>-1108.925149318903</v>
+        <v>-1108.925149318904</v>
       </c>
       <c r="K69" t="n">
         <v>57.459999</v>
@@ -4359,7 +4359,7 @@
         <v>0</v>
       </c>
       <c r="G70" t="n">
-        <v>37.14</v>
+        <v>37.13700000000001</v>
       </c>
       <c r="H70" t="n">
         <v>49.8</v>
@@ -4533,10 +4533,10 @@
         <v>0</v>
       </c>
       <c r="I73" t="n">
-        <v>35.993</v>
+        <v>35.23799999999999</v>
       </c>
       <c r="J73" t="n">
-        <v>1880.64786233406</v>
+        <v>1876.765762283145</v>
       </c>
       <c r="K73" t="n">
         <v>43.580002</v>
@@ -4592,7 +4592,7 @@
         <v>36.021</v>
       </c>
       <c r="J74" t="n">
-        <v>1630.526146605506</v>
+        <v>1629.49363404263</v>
       </c>
       <c r="K74" t="n">
         <v>38.459999</v>
@@ -4648,7 +4648,7 @@
         <v>0</v>
       </c>
       <c r="J75" t="n">
-        <v>3401.596489905247</v>
+        <v>3400.584080051503</v>
       </c>
       <c r="K75" t="n">
         <v>37.16</v>
@@ -4704,7 +4704,7 @@
         <v>0</v>
       </c>
       <c r="J76" t="n">
-        <v>3380.462183914234</v>
+        <v>3379.455952012981</v>
       </c>
       <c r="K76" t="n">
         <v>37.7</v>
@@ -4760,7 +4760,7 @@
         <v>0</v>
       </c>
       <c r="J77" t="n">
-        <v>3240.496574592002</v>
+        <v>3239.531257253301</v>
       </c>
       <c r="K77" t="n">
         <v>34.23</v>
@@ -4816,7 +4816,7 @@
         <v>0</v>
       </c>
       <c r="J78" t="n">
-        <v>3131.540283213968</v>
+        <v>3130.642054431796</v>
       </c>
       <c r="K78" t="n">
         <v>31.290001</v>
@@ -4869,10 +4869,10 @@
         <v>0</v>
       </c>
       <c r="I79" t="n">
-        <v>39.067</v>
+        <v>38.85399999999998</v>
       </c>
       <c r="J79" t="n">
-        <v>1384.169561369122</v>
+        <v>1202.577469023343</v>
       </c>
       <c r="K79" t="n">
         <v>39.25</v>
@@ -4928,7 +4928,7 @@
         <v>39.067</v>
       </c>
       <c r="J80" t="n">
-        <v>1236.324377881376</v>
+        <v>-425.9616981862417</v>
       </c>
       <c r="K80" t="n">
         <v>46.66</v>
@@ -4972,19 +4972,19 @@
         <v>6.32</v>
       </c>
       <c r="F81" t="n">
-        <v>27.3</v>
+        <v>49.8</v>
       </c>
       <c r="G81" t="n">
         <v>41.98499999999996</v>
       </c>
       <c r="H81" t="n">
-        <v>22.5</v>
+        <v>0</v>
       </c>
       <c r="I81" t="n">
         <v>38.42599999999999</v>
       </c>
       <c r="J81" t="n">
-        <v>-2016.997635539999</v>
+        <v>-2320.065789860747</v>
       </c>
       <c r="K81" t="n">
         <v>59.200001</v>
@@ -5040,7 +5040,7 @@
         <v>38.638</v>
       </c>
       <c r="J82" t="n">
-        <v>-2469.904245076576</v>
+        <v>-4247.310063680942</v>
       </c>
       <c r="K82" t="n">
         <v>62.48</v>
@@ -5096,7 +5096,7 @@
         <v>0</v>
       </c>
       <c r="J83" t="n">
-        <v>-2080.618322656006</v>
+        <v>-5373.320212784863</v>
       </c>
       <c r="K83" t="n">
         <v>59.380001</v>
@@ -5152,7 +5152,7 @@
         <v>0</v>
       </c>
       <c r="J84" t="n">
-        <v>-3479.451916596089</v>
+        <v>-4014.755848595072</v>
       </c>
       <c r="K84" t="n">
         <v>56.369999</v>
@@ -5208,7 +5208,7 @@
         <v>0</v>
       </c>
       <c r="J85" t="n">
-        <v>-3059.050438357449</v>
+        <v>-3121.798994046203</v>
       </c>
       <c r="K85" t="n">
         <v>58.57</v>
@@ -5264,7 +5264,7 @@
         <v>0</v>
       </c>
       <c r="J86" t="n">
-        <v>-1435.172258826391</v>
+        <v>-3075.631301821723</v>
       </c>
       <c r="K86" t="n">
         <v>56.99998</v>
@@ -5308,19 +5308,19 @@
         <v>6.32</v>
       </c>
       <c r="F87" t="n">
-        <v>39.5</v>
+        <v>49.8</v>
       </c>
       <c r="G87" t="n">
-        <v>36.75899999999998</v>
+        <v>36.75899999999996</v>
       </c>
       <c r="H87" t="n">
-        <v>10.3</v>
+        <v>0</v>
       </c>
       <c r="I87" t="n">
         <v>34.095</v>
       </c>
       <c r="J87" t="n">
-        <v>-1809.619118785983</v>
+        <v>-3787.371957691756</v>
       </c>
       <c r="K87" t="n">
         <v>54.560001</v>
@@ -5364,19 +5364,19 @@
         <v>6.32</v>
       </c>
       <c r="F88" t="n">
-        <v>8</v>
+        <v>49.8</v>
       </c>
       <c r="G88" t="n">
         <v>36.75899999999996</v>
       </c>
       <c r="H88" t="n">
-        <v>41.8</v>
+        <v>0</v>
       </c>
       <c r="I88" t="n">
         <v>34.095</v>
       </c>
       <c r="J88" t="n">
-        <v>-1718.172162244191</v>
+        <v>-2111.103639100123</v>
       </c>
       <c r="K88" t="n">
         <v>50.279999</v>
@@ -5420,19 +5420,19 @@
         <v>6.32</v>
       </c>
       <c r="F89" t="n">
-        <v>49.8</v>
+        <v>27.8</v>
       </c>
       <c r="G89" t="n">
-        <v>36.75899999999996</v>
+        <v>36.75899999999998</v>
       </c>
       <c r="H89" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="I89" t="n">
         <v>34.143</v>
       </c>
       <c r="J89" t="n">
-        <v>1780.089157419619</v>
+        <v>-1778.566457120002</v>
       </c>
       <c r="K89" t="n">
         <v>49.139999</v>
@@ -5476,19 +5476,19 @@
         <v>6.19</v>
       </c>
       <c r="F90" t="n">
-        <v>0</v>
+        <v>11.9</v>
       </c>
       <c r="G90" t="n">
-        <v>37.27900000000008</v>
+        <v>36.9489999999999</v>
       </c>
       <c r="H90" t="n">
-        <v>49.8</v>
+        <v>37.9</v>
       </c>
       <c r="I90" t="n">
         <v>33.952</v>
       </c>
       <c r="J90" t="n">
-        <v>-1274.64714398481</v>
+        <v>-1728.8438802</v>
       </c>
       <c r="K90" t="n">
         <v>51.2</v>
@@ -5535,7 +5535,7 @@
         <v>0</v>
       </c>
       <c r="G91" t="n">
-        <v>36.977</v>
+        <v>36.9489999999999</v>
       </c>
       <c r="H91" t="n">
         <v>49.8</v>
@@ -5544,7 +5544,7 @@
         <v>33.952</v>
       </c>
       <c r="J91" t="n">
-        <v>-1081.78754034781</v>
+        <v>-1158.608154041343</v>
       </c>
       <c r="K91" t="n">
         <v>57.950001</v>
@@ -5600,7 +5600,7 @@
         <v>33.952</v>
       </c>
       <c r="J92" t="n">
-        <v>-1019.560577029615</v>
+        <v>-1019.560577029617</v>
       </c>
       <c r="K92" t="n">
         <v>68.50003</v>
@@ -5647,7 +5647,7 @@
         <v>0</v>
       </c>
       <c r="G93" t="n">
-        <v>37.168</v>
+        <v>37.46899999999999</v>
       </c>
       <c r="H93" t="n">
         <v>49.8</v>
@@ -5756,19 +5756,19 @@
         <v>2.29</v>
       </c>
       <c r="F95" t="n">
-        <v>49.8</v>
+        <v>0</v>
       </c>
       <c r="G95" t="n">
-        <v>37.36500000000001</v>
+        <v>37.39299999999999</v>
       </c>
       <c r="H95" t="n">
-        <v>0</v>
+        <v>49.8</v>
       </c>
       <c r="I95" t="n">
         <v>34.667</v>
       </c>
       <c r="J95" t="n">
-        <v>2034.652154375678</v>
+        <v>-1195.959988085667</v>
       </c>
       <c r="K95" t="n">
         <v>48.200001</v>
@@ -5812,19 +5812,19 @@
         <v>2.29</v>
       </c>
       <c r="F96" t="n">
-        <v>3.1</v>
+        <v>0</v>
       </c>
       <c r="G96" t="n">
-        <v>38.317</v>
+        <v>38.346</v>
       </c>
       <c r="H96" t="n">
-        <v>46.7</v>
+        <v>49.8</v>
       </c>
       <c r="I96" t="n">
         <v>35.238</v>
       </c>
       <c r="J96" t="n">
-        <v>-1017.134195710301</v>
+        <v>-1219.137417035681</v>
       </c>
       <c r="K96" t="n">
         <v>50.9998</v>
@@ -5871,7 +5871,7 @@
         <v>49.8</v>
       </c>
       <c r="G97" t="n">
-        <v>38.317</v>
+        <v>38.31700000000001</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -5880,7 +5880,7 @@
         <v>35.238</v>
       </c>
       <c r="J97" t="n">
-        <v>1777.571088324557</v>
+        <v>1773.668206103526</v>
       </c>
       <c r="K97" t="n">
         <v>46.110001</v>
@@ -5927,7 +5927,7 @@
         <v>47.8</v>
       </c>
       <c r="G98" t="n">
-        <v>37.00200000000001</v>
+        <v>37.00200000000002</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -5936,7 +5936,7 @@
         <v>36.0209999999999</v>
       </c>
       <c r="J98" t="n">
-        <v>1664.621468709561</v>
+        <v>1663.572988995305</v>
       </c>
       <c r="K98" t="n">
         <v>46.619999</v>
@@ -5992,7 +5992,7 @@
         <v>0</v>
       </c>
       <c r="J99" t="n">
-        <v>3337.238850873762</v>
+        <v>3336.22326778654</v>
       </c>
       <c r="K99" t="n">
         <v>43.9</v>
@@ -6048,7 +6048,7 @@
         <v>0</v>
       </c>
       <c r="J100" t="n">
-        <v>3273.578239922562</v>
+        <v>3272.581594211518</v>
       </c>
       <c r="K100" t="n">
         <v>43</v>
@@ -6104,7 +6104,7 @@
         <v>0</v>
       </c>
       <c r="J101" t="n">
-        <v>3172.560773048954</v>
+        <v>3171.594177407209</v>
       </c>
       <c r="K101" t="n">
         <v>42.59</v>
@@ -6160,7 +6160,7 @@
         <v>0</v>
       </c>
       <c r="J102" t="n">
-        <v>3234.542458310068</v>
+        <v>3233.583036201967</v>
       </c>
       <c r="K102" t="n">
         <v>42.200001</v>
@@ -6204,19 +6204,19 @@
         <v>1.21</v>
       </c>
       <c r="F103" t="n">
-        <v>49.8</v>
+        <v>0</v>
       </c>
       <c r="G103" t="n">
-        <v>0</v>
+        <v>41.63200000000001</v>
       </c>
       <c r="H103" t="n">
-        <v>0</v>
+        <v>49.8</v>
       </c>
       <c r="I103" t="n">
-        <v>39.289</v>
+        <v>38.85399999999998</v>
       </c>
       <c r="J103" t="n">
-        <v>1758.161006996506</v>
+        <v>-1672.45376588248</v>
       </c>
       <c r="K103" t="n">
         <v>45.66</v>
@@ -6260,19 +6260,19 @@
         <v>5.65</v>
       </c>
       <c r="F104" t="n">
-        <v>0</v>
+        <v>6.5</v>
       </c>
       <c r="G104" t="n">
-        <v>41.63200000000001</v>
+        <v>0</v>
       </c>
       <c r="H104" t="n">
-        <v>49.8</v>
+        <v>43.3</v>
       </c>
       <c r="I104" t="n">
         <v>38.85399999999998</v>
       </c>
       <c r="J104" t="n">
-        <v>-1846.381988659419</v>
+        <v>-1904.44218240568</v>
       </c>
       <c r="K104" t="n">
         <v>61.950001</v>
@@ -6316,19 +6316,19 @@
         <v>6.32</v>
       </c>
       <c r="F105" t="n">
-        <v>23.6</v>
+        <v>15.8</v>
       </c>
       <c r="G105" t="n">
-        <v>36.2</v>
+        <v>36.19999999999999</v>
       </c>
       <c r="H105" t="n">
-        <v>26.2</v>
+        <v>34</v>
       </c>
       <c r="I105" t="n">
         <v>38.42599999999999</v>
       </c>
       <c r="J105" t="n">
-        <v>-1986.333856999999</v>
+        <v>-1965.25256924</v>
       </c>
       <c r="K105" t="n">
         <v>70</v>
@@ -6372,19 +6372,19 @@
         <v>7.73</v>
       </c>
       <c r="F106" t="n">
-        <v>32.6</v>
+        <v>45.40000000000001</v>
       </c>
       <c r="G106" t="n">
-        <v>36.19999999999999</v>
+        <v>36.2</v>
       </c>
       <c r="H106" t="n">
-        <v>17.2</v>
+        <v>4.4</v>
       </c>
       <c r="I106" t="n">
         <v>38.42599999999999</v>
       </c>
       <c r="J106" t="n">
-        <v>-2010.6584198</v>
+        <v>-2045.280635636654</v>
       </c>
       <c r="K106" t="n">
         <v>75.620003</v>
@@ -6440,7 +6440,7 @@
         <v>0</v>
       </c>
       <c r="J107" t="n">
-        <v>-2639.171740960542</v>
+        <v>-5196.828913694909</v>
       </c>
       <c r="K107" t="n">
         <v>79.66999800000001</v>
@@ -6496,7 +6496,7 @@
         <v>0</v>
       </c>
       <c r="J108" t="n">
-        <v>-2847.673882772146</v>
+        <v>-6710.308404825441</v>
       </c>
       <c r="K108" t="n">
         <v>74.949997</v>
@@ -6552,7 +6552,7 @@
         <v>0</v>
       </c>
       <c r="J109" t="n">
-        <v>-2625.808769340806</v>
+        <v>-6573.491296816708</v>
       </c>
       <c r="K109" t="n">
         <v>72.199997</v>
@@ -6608,7 +6608,7 @@
         <v>0</v>
       </c>
       <c r="J110" t="n">
-        <v>-2712.958240120742</v>
+        <v>-5502.081294027224</v>
       </c>
       <c r="K110" t="n">
         <v>69.19996999999999</v>
@@ -6655,7 +6655,7 @@
         <v>49.8</v>
       </c>
       <c r="G111" t="n">
-        <v>36.75600000000001</v>
+        <v>0</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -6664,7 +6664,7 @@
         <v>34.095</v>
       </c>
       <c r="J111" t="n">
-        <v>-1950.698381397256</v>
+        <v>-3618.195489969554</v>
       </c>
       <c r="K111" t="n">
         <v>67</v>
@@ -6708,19 +6708,19 @@
         <v>6.73</v>
       </c>
       <c r="F112" t="n">
-        <v>31.7</v>
+        <v>49.8</v>
       </c>
       <c r="G112" t="n">
-        <v>36.75600000000001</v>
+        <v>0</v>
       </c>
       <c r="H112" t="n">
-        <v>18.1</v>
+        <v>0</v>
       </c>
       <c r="I112" t="n">
         <v>34.095</v>
       </c>
       <c r="J112" t="n">
-        <v>-1537.404394307027</v>
+        <v>-3081.102167822999</v>
       </c>
       <c r="K112" t="n">
         <v>65.910004</v>
@@ -6764,19 +6764,19 @@
         <v>7.41</v>
       </c>
       <c r="F113" t="n">
-        <v>11.1</v>
+        <v>45.3</v>
       </c>
       <c r="G113" t="n">
         <v>36.75600000000001</v>
       </c>
       <c r="H113" t="n">
-        <v>38.7</v>
+        <v>4.5</v>
       </c>
       <c r="I113" t="n">
         <v>34.143</v>
       </c>
       <c r="J113" t="n">
-        <v>-1643.806360333139</v>
+        <v>-1466.79298722</v>
       </c>
       <c r="K113" t="n">
         <v>66.10002</v>
@@ -6820,19 +6820,19 @@
         <v>7.99</v>
       </c>
       <c r="F114" t="n">
-        <v>0</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="G114" t="n">
-        <v>36.94600000000001</v>
+        <v>35.44200000000001</v>
       </c>
       <c r="H114" t="n">
-        <v>49.8</v>
+        <v>41.5</v>
       </c>
       <c r="I114" t="n">
         <v>33.952</v>
       </c>
       <c r="J114" t="n">
-        <v>-1259.931048040669</v>
+        <v>-1716.650688100468</v>
       </c>
       <c r="K114" t="n">
         <v>67.349998</v>
@@ -6879,7 +6879,7 @@
         <v>0</v>
       </c>
       <c r="G115" t="n">
-        <v>39.602</v>
+        <v>35.44200000000001</v>
       </c>
       <c r="H115" t="n">
         <v>49.8</v>
@@ -6888,7 +6888,7 @@
         <v>33.952</v>
       </c>
       <c r="J115" t="n">
-        <v>-1045.569322139448</v>
+        <v>-1050.390210965864</v>
       </c>
       <c r="K115" t="n">
         <v>73.459999</v>
@@ -6935,7 +6935,7 @@
         <v>0</v>
       </c>
       <c r="G116" t="n">
-        <v>37.279</v>
+        <v>36.94600000000001</v>
       </c>
       <c r="H116" t="n">
         <v>49.8</v>
@@ -6944,7 +6944,7 @@
         <v>33.952</v>
       </c>
       <c r="J116" t="n">
-        <v>-1007.917918026586</v>
+        <v>-1007.917918026583</v>
       </c>
       <c r="K116" t="n">
         <v>71.410004</v>
@@ -6991,7 +6991,7 @@
         <v>0</v>
       </c>
       <c r="G117" t="n">
-        <v>39.602</v>
+        <v>37.13700000000001</v>
       </c>
       <c r="H117" t="n">
         <v>49.8</v>
@@ -7047,7 +7047,7 @@
         <v>0</v>
       </c>
       <c r="G118" t="n">
-        <v>39.602</v>
+        <v>37.469</v>
       </c>
       <c r="H118" t="n">
         <v>49.8</v>
@@ -7103,7 +7103,7 @@
         <v>0</v>
       </c>
       <c r="G119" t="n">
-        <v>40.026</v>
+        <v>37.695</v>
       </c>
       <c r="H119" t="n">
         <v>49.8</v>
@@ -7112,7 +7112,7 @@
         <v>34.667</v>
       </c>
       <c r="J119" t="n">
-        <v>-1192.801539614063</v>
+        <v>-1192.801539614062</v>
       </c>
       <c r="K119" t="n">
         <v>55.259998</v>
@@ -7159,7 +7159,7 @@
         <v>49.8</v>
       </c>
       <c r="G120" t="n">
-        <v>36.53499999999991</v>
+        <v>36.535</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -7168,7 +7168,7 @@
         <v>35.238</v>
       </c>
       <c r="J120" t="n">
-        <v>1925.059301477056</v>
+        <v>1924.123761985482</v>
       </c>
       <c r="K120" t="n">
         <v>50.119999</v>
@@ -7224,7 +7224,7 @@
         <v>35.238</v>
       </c>
       <c r="J121" t="n">
-        <v>1658.009893490269</v>
+        <v>1656.96699364721</v>
       </c>
       <c r="K121" t="n">
         <v>41.2</v>
@@ -7280,7 +7280,7 @@
         <v>36.482</v>
       </c>
       <c r="J122" t="n">
-        <v>1624.775151489001</v>
+        <v>1623.74541335976</v>
       </c>
       <c r="K122" t="n">
         <v>38.459999</v>
@@ -7336,7 +7336,7 @@
         <v>0</v>
       </c>
       <c r="J123" t="n">
-        <v>3249.975221804857</v>
+        <v>3248.983560593668</v>
       </c>
       <c r="K123" t="n">
         <v>37.16</v>
@@ -7377,7 +7377,7 @@
         <v>47.8</v>
       </c>
       <c r="E124" t="n">
-        <v>0.5999999999999089</v>
+        <v>0.6</v>
       </c>
       <c r="F124" t="n">
         <v>0</v>
@@ -7392,7 +7392,7 @@
         <v>0</v>
       </c>
       <c r="J124" t="n">
-        <v>3206.200779262283</v>
+        <v>3205.222308862079</v>
       </c>
       <c r="K124" t="n">
         <v>37.7</v>
@@ -7433,7 +7433,7 @@
         <v>47.8</v>
       </c>
       <c r="E125" t="n">
-        <v>0.6</v>
+        <v>0.5999999999999091</v>
       </c>
       <c r="F125" t="n">
         <v>0</v>
@@ -7448,7 +7448,7 @@
         <v>0</v>
       </c>
       <c r="J125" t="n">
-        <v>3122.822415377705</v>
+        <v>3121.868684653577</v>
       </c>
       <c r="K125" t="n">
         <v>34.23</v>
@@ -7504,7 +7504,7 @@
         <v>0</v>
       </c>
       <c r="J126" t="n">
-        <v>3157.033407818866</v>
+        <v>3156.093347461371</v>
       </c>
       <c r="K126" t="n">
         <v>31.290001</v>
@@ -7557,10 +7557,10 @@
         <v>0</v>
       </c>
       <c r="I127" t="n">
-        <v>39.691</v>
+        <v>39.06700000000001</v>
       </c>
       <c r="J127" t="n">
-        <v>1475.648740294339</v>
+        <v>1280.971809839182</v>
       </c>
       <c r="K127" t="n">
         <v>39.25</v>
@@ -7607,16 +7607,16 @@
         <v>49.8</v>
       </c>
       <c r="G128" t="n">
-        <v>35.3669999999999</v>
+        <v>35.36699999999998</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
       </c>
       <c r="I128" t="n">
-        <v>39.69100000000003</v>
+        <v>39.067</v>
       </c>
       <c r="J128" t="n">
-        <v>1131.395100281899</v>
+        <v>642.5312063072219</v>
       </c>
       <c r="K128" t="n">
         <v>46.66</v>
@@ -7660,19 +7660,19 @@
         <v>8.359999999999999</v>
       </c>
       <c r="F129" t="n">
-        <v>29.4</v>
+        <v>31.5</v>
       </c>
       <c r="G129" t="n">
-        <v>35.79199999999997</v>
+        <v>35.79199999999999</v>
       </c>
       <c r="H129" t="n">
-        <v>20.4</v>
+        <v>18.3</v>
       </c>
       <c r="I129" t="n">
-        <v>38.42600000000002</v>
+        <v>38.42599999999999</v>
       </c>
       <c r="J129" t="n">
-        <v>-2004.030931208489</v>
+        <v>-2009.989207664687</v>
       </c>
       <c r="K129" t="n">
         <v>59.200001</v>
@@ -7716,19 +7716,19 @@
         <v>9.07</v>
       </c>
       <c r="F130" t="n">
-        <v>49.8</v>
+        <v>34.5</v>
       </c>
       <c r="G130" t="n">
         <v>35.79199999999997</v>
       </c>
       <c r="H130" t="n">
-        <v>0</v>
+        <v>15.3</v>
       </c>
       <c r="I130" t="n">
-        <v>38.63800000000001</v>
+        <v>38.42599999999999</v>
       </c>
       <c r="J130" t="n">
-        <v>-3046.480747132133</v>
+        <v>-2017.337394438682</v>
       </c>
       <c r="K130" t="n">
         <v>62.48</v>
@@ -7766,7 +7766,7 @@
         <v>20.67</v>
       </c>
       <c r="D131" t="n">
-        <v>49.8</v>
+        <v>31.9</v>
       </c>
       <c r="E131" t="n">
         <v>5.11</v>
@@ -7784,7 +7784,7 @@
         <v>0</v>
       </c>
       <c r="J131" t="n">
-        <v>-2986.800272477295</v>
+        <v>-265.8336722648861</v>
       </c>
       <c r="K131" t="n">
         <v>59.380001</v>
@@ -7822,10 +7822,10 @@
         <v>20.67</v>
       </c>
       <c r="D132" t="n">
-        <v>49.8</v>
+        <v>36.6</v>
       </c>
       <c r="E132" t="n">
-        <v>5.109999999999673</v>
+        <v>5.11</v>
       </c>
       <c r="F132" t="n">
         <v>0</v>
@@ -7840,7 +7840,7 @@
         <v>0</v>
       </c>
       <c r="J132" t="n">
-        <v>-3832.261875060074</v>
+        <v>-302.3537939323747</v>
       </c>
       <c r="K132" t="n">
         <v>56.369999</v>
@@ -7878,7 +7878,7 @@
         <v>20.67</v>
       </c>
       <c r="D133" t="n">
-        <v>49.8</v>
+        <v>34.7</v>
       </c>
       <c r="E133" t="n">
         <v>5.11</v>
@@ -7896,7 +7896,7 @@
         <v>0</v>
       </c>
       <c r="J133" t="n">
-        <v>-2698.554014297519</v>
+        <v>-282.7777290374965</v>
       </c>
       <c r="K133" t="n">
         <v>58.57</v>
@@ -7934,7 +7934,7 @@
         <v>21.49</v>
       </c>
       <c r="D134" t="n">
-        <v>49.8</v>
+        <v>19.3</v>
       </c>
       <c r="E134" t="n">
         <v>5.11</v>
@@ -7952,7 +7952,7 @@
         <v>0</v>
       </c>
       <c r="J134" t="n">
-        <v>-2318.745543407874</v>
+        <v>-153.8403772000001</v>
       </c>
       <c r="K134" t="n">
         <v>56.99998</v>
@@ -7996,19 +7996,19 @@
         <v>8.359999999999999</v>
       </c>
       <c r="F135" t="n">
-        <v>49.8</v>
+        <v>17.3</v>
       </c>
       <c r="G135" t="n">
-        <v>32.74899999999997</v>
+        <v>32.749</v>
       </c>
       <c r="H135" t="n">
-        <v>0</v>
+        <v>32.5</v>
       </c>
       <c r="I135" t="n">
-        <v>35</v>
+        <v>34.09499999999997</v>
       </c>
       <c r="J135" t="n">
-        <v>-3140.827017626322</v>
+        <v>-1744.944466899999</v>
       </c>
       <c r="K135" t="n">
         <v>54.560001</v>
@@ -8052,19 +8052,19 @@
         <v>8.26</v>
       </c>
       <c r="F136" t="n">
-        <v>49.8</v>
+        <v>16.6</v>
       </c>
       <c r="G136" t="n">
-        <v>32.74899999999997</v>
+        <v>32.749</v>
       </c>
       <c r="H136" t="n">
-        <v>0</v>
+        <v>33.2</v>
       </c>
       <c r="I136" t="n">
-        <v>35</v>
+        <v>34.09499999999997</v>
       </c>
       <c r="J136" t="n">
-        <v>-12.05234119475036</v>
+        <v>-1743.4326209</v>
       </c>
       <c r="K136" t="n">
         <v>50.279999</v>
@@ -8108,19 +8108,19 @@
         <v>8.26</v>
       </c>
       <c r="F137" t="n">
-        <v>12</v>
+        <v>3.3</v>
       </c>
       <c r="G137" t="n">
         <v>32.74899999999997</v>
       </c>
       <c r="H137" t="n">
-        <v>37.8</v>
+        <v>46.5</v>
       </c>
       <c r="I137" t="n">
         <v>34.14299999999997</v>
       </c>
       <c r="J137" t="n">
-        <v>-1732.06041465685</v>
+        <v>-1716.4616757</v>
       </c>
       <c r="K137" t="n">
         <v>49.139999</v>
@@ -8176,7 +8176,7 @@
         <v>33.952</v>
       </c>
       <c r="J138" t="n">
-        <v>-1330.245493901448</v>
+        <v>-1495.690869543331</v>
       </c>
       <c r="K138" t="n">
         <v>51.2</v>
@@ -8335,7 +8335,7 @@
         <v>0</v>
       </c>
       <c r="G141" t="n">
-        <v>37.137</v>
+        <v>32.93000000000001</v>
       </c>
       <c r="H141" t="n">
         <v>49.8</v>
@@ -8391,7 +8391,7 @@
         <v>0</v>
       </c>
       <c r="G142" t="n">
-        <v>39.584</v>
+        <v>37.137</v>
       </c>
       <c r="H142" t="n">
         <v>49.8</v>
@@ -8400,7 +8400,7 @@
         <v>34.238</v>
       </c>
       <c r="J142" t="n">
-        <v>-1150.423890478913</v>
+        <v>-1150.42389047891</v>
       </c>
       <c r="K142" t="n">
         <v>55.66</v>
@@ -8447,7 +8447,7 @@
         <v>0</v>
       </c>
       <c r="G143" t="n">
-        <v>37.393</v>
+        <v>37.361</v>
       </c>
       <c r="H143" t="n">
         <v>49.8</v>
@@ -8456,7 +8456,7 @@
         <v>34.66699999999997</v>
       </c>
       <c r="J143" t="n">
-        <v>-1200.699409171368</v>
+        <v>-1200.69940917137</v>
       </c>
       <c r="K143" t="n">
         <v>48.200001</v>
@@ -8500,19 +8500,19 @@
         <v>2.3</v>
       </c>
       <c r="F144" t="n">
-        <v>49.8</v>
+        <v>35.7</v>
       </c>
       <c r="G144" t="n">
         <v>33.32900000000001</v>
       </c>
       <c r="H144" t="n">
-        <v>0</v>
+        <v>14.1</v>
       </c>
       <c r="I144" t="n">
-        <v>35.238</v>
+        <v>35.09499999999997</v>
       </c>
       <c r="J144" t="n">
-        <v>1932.687470290111</v>
+        <v>1034.677939741849</v>
       </c>
       <c r="K144" t="n">
         <v>50.9998</v>
@@ -8565,10 +8565,10 @@
         <v>0</v>
       </c>
       <c r="I145" t="n">
-        <v>35.238</v>
+        <v>35.09499999999997</v>
       </c>
       <c r="J145" t="n">
-        <v>1720.819572188538</v>
+        <v>1719.76929363207</v>
       </c>
       <c r="K145" t="n">
         <v>46.110001</v>
@@ -8603,7 +8603,7 @@
         <v>0</v>
       </c>
       <c r="C146" t="n">
-        <v>24.48000000000002</v>
+        <v>18.9599999999997</v>
       </c>
       <c r="D146" t="n">
         <v>0</v>
@@ -8615,16 +8615,16 @@
         <v>49.8</v>
       </c>
       <c r="G146" t="n">
-        <v>34.07200000000001</v>
+        <v>34.072</v>
       </c>
       <c r="H146" t="n">
         <v>0</v>
       </c>
       <c r="I146" t="n">
-        <v>40.35</v>
+        <v>36.0209999999999</v>
       </c>
       <c r="J146" t="n">
-        <v>1751.757405235472</v>
+        <v>1750.731601050138</v>
       </c>
       <c r="K146" t="n">
         <v>41.18</v>
@@ -8659,7 +8659,7 @@
         <v>0</v>
       </c>
       <c r="C147" t="n">
-        <v>24.48000000000002</v>
+        <v>18.9599999999997</v>
       </c>
       <c r="D147" t="n">
         <v>49.8</v>
@@ -8680,7 +8680,7 @@
         <v>0</v>
       </c>
       <c r="J147" t="n">
-        <v>3326.617682913464</v>
+        <v>3325.633027205085</v>
       </c>
       <c r="K147" t="n">
         <v>40</v>
@@ -8715,7 +8715,7 @@
         <v>0</v>
       </c>
       <c r="C148" t="n">
-        <v>24.48000000000002</v>
+        <v>18.9599999999997</v>
       </c>
       <c r="D148" t="n">
         <v>49.8</v>
@@ -8736,7 +8736,7 @@
         <v>0</v>
       </c>
       <c r="J148" t="n">
-        <v>3263.949937461654</v>
+        <v>3262.983600706072</v>
       </c>
       <c r="K148" t="n">
         <v>40</v>
@@ -8771,7 +8771,7 @@
         <v>0</v>
       </c>
       <c r="C149" t="n">
-        <v>24.48000000000002</v>
+        <v>18.9599999999997</v>
       </c>
       <c r="D149" t="n">
         <v>49.8</v>
@@ -8792,7 +8792,7 @@
         <v>0</v>
       </c>
       <c r="J149" t="n">
-        <v>3217.659533941425</v>
+        <v>3216.70662601812</v>
       </c>
       <c r="K149" t="n">
         <v>38.509998</v>
@@ -8848,7 +8848,7 @@
         <v>0</v>
       </c>
       <c r="J150" t="n">
-        <v>3191.471701596293</v>
+        <v>3190.526448865643</v>
       </c>
       <c r="K150" t="n">
         <v>37.400002</v>
@@ -8901,10 +8901,10 @@
         <v>0</v>
       </c>
       <c r="I151" t="n">
-        <v>39.067</v>
+        <v>0</v>
       </c>
       <c r="J151" t="n">
-        <v>1668.624618735142</v>
+        <v>1402.339541890461</v>
       </c>
       <c r="K151" t="n">
         <v>39.990002</v>
@@ -8960,7 +8960,7 @@
         <v>39.691</v>
       </c>
       <c r="J152" t="n">
-        <v>1838.117685434884</v>
+        <v>-521.5957502029914</v>
       </c>
       <c r="K152" t="n">
         <v>53.939999</v>
@@ -9004,19 +9004,19 @@
         <v>5.93</v>
       </c>
       <c r="F153" t="n">
-        <v>4</v>
+        <v>49.8</v>
       </c>
       <c r="G153" t="n">
-        <v>35.58700000000002</v>
+        <v>35.58699999999993</v>
       </c>
       <c r="H153" t="n">
-        <v>45.8</v>
+        <v>0</v>
       </c>
       <c r="I153" t="n">
-        <v>38.63800000000001</v>
+        <v>38.63799999999998</v>
       </c>
       <c r="J153" t="n">
-        <v>-1949.119678439999</v>
+        <v>-3390.04333331553</v>
       </c>
       <c r="K153" t="n">
         <v>63.389999</v>
@@ -9060,19 +9060,19 @@
         <v>7.73</v>
       </c>
       <c r="F154" t="n">
-        <v>25.6</v>
+        <v>49.8</v>
       </c>
       <c r="G154" t="n">
         <v>35.58699999999993</v>
       </c>
       <c r="H154" t="n">
-        <v>24.2</v>
+        <v>0</v>
       </c>
       <c r="I154" t="n">
-        <v>38.63799999999998</v>
+        <v>39.374</v>
       </c>
       <c r="J154" t="n">
-        <v>-1904.073658387213</v>
+        <v>-5473.01031369041</v>
       </c>
       <c r="K154" t="n">
         <v>64.80999799999999</v>
@@ -9110,7 +9110,7 @@
         <v>14.84</v>
       </c>
       <c r="D155" t="n">
-        <v>39.1</v>
+        <v>49.8</v>
       </c>
       <c r="E155" t="n">
         <v>5.69</v>
@@ -9122,13 +9122,13 @@
         <v>0</v>
       </c>
       <c r="H155" t="n">
-        <v>10.7</v>
+        <v>0</v>
       </c>
       <c r="I155" t="n">
         <v>39.65</v>
       </c>
       <c r="J155" t="n">
-        <v>-442.9596173665487</v>
+        <v>-6024.746970681407</v>
       </c>
       <c r="K155" t="n">
         <v>65.99997999999999</v>
@@ -9184,7 +9184,7 @@
         <v>0</v>
       </c>
       <c r="J156" t="n">
-        <v>-720.1379257675703</v>
+        <v>-6653.107268372473</v>
       </c>
       <c r="K156" t="n">
         <v>64.660004</v>
@@ -9240,7 +9240,7 @@
         <v>0</v>
       </c>
       <c r="J157" t="n">
-        <v>-418.9473731297992</v>
+        <v>-6153.260510873289</v>
       </c>
       <c r="K157" t="n">
         <v>65.56999999999999</v>
@@ -9296,7 +9296,7 @@
         <v>0</v>
       </c>
       <c r="J158" t="n">
-        <v>-1489.815733431012</v>
+        <v>-5864.149072221076</v>
       </c>
       <c r="K158" t="n">
         <v>64.459999</v>
@@ -9352,7 +9352,7 @@
         <v>35</v>
       </c>
       <c r="J159" t="n">
-        <v>-2642.613460291825</v>
+        <v>-4306.750827585455</v>
       </c>
       <c r="K159" t="n">
         <v>64.760002</v>
@@ -9405,10 +9405,10 @@
         <v>0</v>
       </c>
       <c r="I160" t="n">
-        <v>35</v>
+        <v>34.95200000000001</v>
       </c>
       <c r="J160" t="n">
-        <v>-1639.886834131224</v>
+        <v>-2342.113240370781</v>
       </c>
       <c r="K160" t="n">
         <v>64</v>
@@ -9452,19 +9452,19 @@
         <v>7.41</v>
       </c>
       <c r="F161" t="n">
-        <v>16.6</v>
+        <v>33</v>
       </c>
       <c r="G161" t="n">
         <v>32.48699999999991</v>
       </c>
       <c r="H161" t="n">
-        <v>33.2</v>
+        <v>16.8</v>
       </c>
       <c r="I161" t="n">
-        <v>34.143</v>
+        <v>0</v>
       </c>
       <c r="J161" t="n">
-        <v>-1437.475899789091</v>
+        <v>-1552.630310287503</v>
       </c>
       <c r="K161" t="n">
         <v>63.299999</v>
@@ -9508,19 +9508,19 @@
         <v>7.99</v>
       </c>
       <c r="F162" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G162" t="n">
-        <v>36.977</v>
+        <v>32.30599999999998</v>
       </c>
       <c r="H162" t="n">
-        <v>49.8</v>
+        <v>45.8</v>
       </c>
       <c r="I162" t="n">
-        <v>33.95199999999999</v>
+        <v>33.952</v>
       </c>
       <c r="J162" t="n">
-        <v>-1437.966879709875</v>
+        <v>-1747.333347986211</v>
       </c>
       <c r="K162" t="n">
         <v>64.260002</v>
@@ -9567,7 +9567,7 @@
         <v>0</v>
       </c>
       <c r="G163" t="n">
-        <v>36.977</v>
+        <v>32.56700000000001</v>
       </c>
       <c r="H163" t="n">
         <v>49.8</v>
@@ -9576,7 +9576,7 @@
         <v>33.952</v>
       </c>
       <c r="J163" t="n">
-        <v>-1122.004170406083</v>
+        <v>-1218.952652010155</v>
       </c>
       <c r="K163" t="n">
         <v>70.16999800000001</v>
@@ -9623,13 +9623,13 @@
         <v>0</v>
       </c>
       <c r="G164" t="n">
-        <v>36.977</v>
+        <v>32.56700000000001</v>
       </c>
       <c r="H164" t="n">
         <v>49.8</v>
       </c>
       <c r="I164" t="n">
-        <v>33.95199999999999</v>
+        <v>33.952</v>
       </c>
       <c r="J164" t="n">
         <v>-1092.672193718598</v>
@@ -9735,7 +9735,7 @@
         <v>0</v>
       </c>
       <c r="G166" t="n">
-        <v>37.168</v>
+        <v>32.93000000000001</v>
       </c>
       <c r="H166" t="n">
         <v>49.8</v>
@@ -9791,7 +9791,7 @@
         <v>0</v>
       </c>
       <c r="G167" t="n">
-        <v>37.393</v>
+        <v>32.88599999999991</v>
       </c>
       <c r="H167" t="n">
         <v>49.8</v>
@@ -9800,7 +9800,7 @@
         <v>34.66699999999997</v>
       </c>
       <c r="J167" t="n">
-        <v>-1214.364501754957</v>
+        <v>-1214.364501754954</v>
       </c>
       <c r="K167" t="n">
         <v>56.360001</v>
@@ -9853,10 +9853,10 @@
         <v>49.8</v>
       </c>
       <c r="I168" t="n">
-        <v>35.095</v>
+        <v>35.09499999999997</v>
       </c>
       <c r="J168" t="n">
-        <v>-1262.377774220141</v>
+        <v>-1263.315457944478</v>
       </c>
       <c r="K168" t="n">
         <v>55.25</v>
@@ -9900,19 +9900,19 @@
         <v>1.32</v>
       </c>
       <c r="F169" t="n">
-        <v>49.8</v>
+        <v>8.9</v>
       </c>
       <c r="G169" t="n">
         <v>33.06799999999993</v>
       </c>
       <c r="H169" t="n">
-        <v>0</v>
+        <v>40.90000000000001</v>
       </c>
       <c r="I169" t="n">
-        <v>38.19600000000008</v>
+        <v>35.09499999999997</v>
       </c>
       <c r="J169" t="n">
-        <v>1915.728588427867</v>
+        <v>-716.1531532239381</v>
       </c>
       <c r="K169" t="n">
         <v>49.400002</v>
